--- a/biology/Zoologie/Mycetophila_confusa/Mycetophila_confusa.xlsx
+++ b/biology/Zoologie/Mycetophila_confusa/Mycetophila_confusa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mycetophila confusa est une espèce fossile d'insectes diptères de la famille des Mycetophilidae (littéralement « amis des champignons »).
 </t>
@@ -511,15 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Mycetophila confusa est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981)[1],[2].
-Trois collections de l'Oligocène de France
-L'holotype est un échantillon A18 des collections de l'Institut géologique de Lyon provenant du gypse d'Aix-en-Provence. Deux autres échantillons, représentants des femelles, sont des cotypes, M29 de l'institut de Géologie de Marseille, et Am30 du Muséum national d'histoire naturelle de Paris[1].
-Confirmation du genre
-Le genre est confirmé en 2021 par Oliveira and Amorim[3],[2].
-Confusion d'attribution : Dziedzicki, 1884
-Selon certaines bases, BioLib et GBIF entre autres, l'espèce serait attribuée à Dziedzicki, 1884[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Mycetophila confusa est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981),.
 </t>
         </is>
       </c>
@@ -545,19 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[1],[note 1] : 
-« Insecte bien conservé, couché sur le côté, de teinte noirâtre. Tête petite, inclinée sur le thorax ; un gros œil encore visible en haut ; restes d'antennes à nombreux segments subcylindriques. Thorax bombé, portant encore quelques longs poils. Abdomen grêle, en fuseau ; 6 segments ; arceaux dorsaux plus foncés que les arceaux ventraux ; poils fins aux articulations. Pattes grêles et fines, de même conformation que dans M. cf. pallipes (v. fig.). Ailes à nervation en partie détruite ; C, R et Rs visibles et disposés de la même façon que dans M. cf. pallipes; ailes ne dépassant pas l'abdomen. »[1].
-Dimensions
-La longueur totale est de 4,2 mm ; la longueur des ailes est de 3 mm ; l'abdomen a une longueur de 3 mm et une largeur de 2 mm[1].
-Affinités
-« Il s'agit ici d'un ♂ de Mycetophila. Il est de taille légèrement supérieure à M. morio Heer, l'abdomen est relativement moins gros. il se distingue aisément de M. cf. pallipes[note 2] par ses ailes ne dépassant pas de l'abdomen.
-Nous rapprochons de cette même forme l'échantillon M29 de l'Institut de géologie de Marseille (pl. XXI, fig. 19) et l'échantillon Am30 du Muséum de Paris représentant des ♀. »[1].
+          <t>Trois collections de l'Oligocène de France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype est un échantillon A18 des collections de l'Institut géologique de Lyon provenant du gypse d'Aix-en-Provence. Deux autres échantillons, représentants des femelles, sont des cotypes, M29 de l'institut de Géologie de Marseille, et Am30 du Muséum national d'histoire naturelle de Paris.
 </t>
         </is>
       </c>
@@ -583,13 +590,203 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confirmation du genre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est confirmé en 2021 par Oliveira and Amorim,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mycetophila_confusa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycetophila_confusa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Confusion d'attribution : Dziedzicki, 1884</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon certaines bases, BioLib et GBIF entre autres, l'espèce serait attribuée à Dziedzicki, 1884,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mycetophila_confusa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycetophila_confusa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Insecte bien conservé, couché sur le côté, de teinte noirâtre. Tête petite, inclinée sur le thorax ; un gros œil encore visible en haut ; restes d'antennes à nombreux segments subcylindriques. Thorax bombé, portant encore quelques longs poils. Abdomen grêle, en fuseau ; 6 segments ; arceaux dorsaux plus foncés que les arceaux ventraux ; poils fins aux articulations. Pattes grêles et fines, de même conformation que dans M. cf. pallipes (v. fig.). Ailes à nervation en partie détruite ; C, R et Rs visibles et disposés de la même façon que dans M. cf. pallipes; ailes ne dépassant pas l'abdomen. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mycetophila_confusa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycetophila_confusa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 4,2 mm ; la longueur des ailes est de 3 mm ; l'abdomen a une longueur de 3 mm et une largeur de 2 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mycetophila_confusa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycetophila_confusa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Il s'agit ici d'un ♂ de Mycetophila. Il est de taille légèrement supérieure à M. morio Heer, l'abdomen est relativement moins gros. il se distingue aisément de M. cf. pallipes[note 2] par ses ailes ne dépassant pas de l'abdomen.
+Nous rapprochons de cette même forme l'échantillon M29 de l'Institut de géologie de Marseille (pl. XXI, fig. 19) et l'échantillon Am30 du Muséum de Paris représentant des ♀. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mycetophila_confusa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycetophila_confusa</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Le genre Mycetophila est un genre cosmopolite, vivant dans les bois, ses larves se nourissent de champignons. »[1].
+« Le genre Mycetophila est un genre cosmopolite, vivant dans les bois, ses larves se nourissent de champignons. ».
 </t>
         </is>
       </c>
